--- a/data/patients.xlsx
+++ b/data/patients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,26 @@
           <t>fees</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>token_number</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>arrival_time</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>guardian_relation</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>token_number_numeric</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -588,12 +608,20 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-05-28 01:56:24</t>
+          <t>2025-05-28 23:41:33</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>2500</v>
       </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -669,6 +697,10 @@
       <c r="Q3" t="n">
         <v>2500</v>
       </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -744,6 +776,10 @@
       <c r="Q4" t="n">
         <v>2500</v>
       </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -794,7 +830,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -815,7 +851,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-05-28 03:55:50</t>
+          <t>2025-05-29 00:01:27</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -823,6 +859,95 @@
           <t>3000</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P20250528233644</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Talal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>lahre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>kahore</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>520</v>
+      </c>
+      <c r="G6" t="n">
+        <v>310162543</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dr. Mukarram Faiz (MBBS FCPS Medicine)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>30</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-05-28 23:36:44</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-05-28 23:44:57</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Mushtaq</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/patients.xlsx
+++ b/data/patients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,12 +543,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P20250528014508</t>
+          <t>P20250528015547</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raheel</t>
+          <t>Fahad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -558,23 +558,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Multan</t>
+          <t>DG Khan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Multan</t>
+          <t>DG Khan</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="G2" t="n">
-        <v>3101628543</v>
+        <v>313505564</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>raheel@gmail.com</t>
+          <t>ahamd@gmail.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -589,75 +589,71 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>7:00</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Monthly Visit</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-05-28 01:45:08</t>
+          <t>2025-05-28 01:55:47</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-05-28 23:41:33</t>
+          <t>2025-05-28 03:08:51</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>2500</v>
       </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P20250528015547</t>
+          <t>P20250528031622</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fahad</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DG Khan</t>
+          <t>LAHORE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DG Khan</t>
+          <t>LAHORE</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="G3" t="n">
-        <v>313505564</v>
+        <v>3263254613</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ahamd@gmail.com</t>
+          <t>Sk@gmail.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -667,31 +663,31 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Cough</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-05-28 01:55:47</t>
+          <t>2025-05-28 03:16:22</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-05-28 03:08:51</t>
+          <t>2025-05-28 03:30:36</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -705,40 +701,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P20250528031622</t>
+          <t>P20250528033736</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>Moakham</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>Faiz</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAHORE</t>
+          <t>Layya</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LAHORE</t>
+          <t>Layya</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>60000</v>
+        <v>45800</v>
       </c>
       <c r="G4" t="n">
-        <v>3263254613</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Sk@gmail.com</t>
-        </is>
-      </c>
+        <v>333215131</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>Dr. Mukarram Faiz (MBBS FCPS Medicine)</t>
@@ -746,12 +738,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -759,63 +751,63 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-05-28 03:16:22</t>
+          <t>2025-05-28 03:37:36</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-05-28 03:30:36</t>
+          <t>2025-05-29 00:01:27</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P20250528033736</t>
+          <t>P20250528233644</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moakham</t>
+          <t>Talal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Faiz</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Layya</t>
+          <t>lahre</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Layya</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>45800</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>333215131</t>
-        </is>
+          <t>kahore</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>520</v>
+      </c>
+      <c r="G5" t="n">
+        <v>310162543</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -825,129 +817,46 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Fever</t>
-        </is>
-      </c>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-05-28 03:37:36</t>
+          <t>2025-05-28 23:36:44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-05-29 00:01:27</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>2025-05-28 23:44:57</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Mushtaq</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P20250528233644</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Talal</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>lahre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>kahore</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>520</v>
-      </c>
-      <c r="G6" t="n">
-        <v>310162543</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Dr. Mukarram Faiz (MBBS FCPS Medicine)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>30</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2025-05-28 23:36:44</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2025-05-28 23:44:57</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Mushtaq</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
